--- a/1.xlsx
+++ b/1.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,12 +389,27 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>area_name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>collect_num</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>area_name</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>key_num</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>general_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>skill_value</t>
         </is>
       </c>
     </row>
@@ -404,27 +419,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ce74ocw3627</t>
+          <t>11igpcfn3813</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>義丨牧光</t>
+          <t>草帽海贼团</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1222</v>
+        <v>300</v>
       </c>
       <c r="E2" t="n">
-        <v>2000</v>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
-      </c>
-      <c r="G2" t="inlineStr">
+        <v>300</v>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>备战区</t>
         </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>75</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -433,27 +457,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1zx9qg03451</t>
+          <t>33967313134</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汝阴铁浮屠</t>
+          <t>糯糯丶团</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>999</v>
+        <v>4800</v>
       </c>
       <c r="E3" t="n">
-        <v>999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>备战区</t>
-        </is>
+        <v>4800</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>征服赛季</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>391</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -462,27 +495,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>17474303064</t>
+          <t>xa6cec83704</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>空气</t>
+          <t>巅峰丨菜徐坤</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>866</v>
+        <v>8888</v>
       </c>
       <c r="E4" t="n">
-        <v>200</v>
-      </c>
-      <c r="F4" t="n">
-        <v>195</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>备战区</t>
-        </is>
+        <v>8888</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>征服赛季</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>317</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -491,27 +533,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>qigygap4006</t>
+          <t>1d2ldh044111</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>少妇使我快乐</t>
+          <t>好吗宝贝</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>305</v>
+        <v>3999</v>
       </c>
       <c r="E5" t="n">
-        <v>305</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>备战区</t>
-        </is>
+        <v>1999</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>征服赛季</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>179</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -520,27 +571,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ppatph43531</t>
+          <t>cw3b5m03218</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>战歌L</t>
+          <t>楚战丶霸王</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2200</v>
+        <v>830</v>
       </c>
       <c r="E6" t="n">
-        <v>2200</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>备战区</t>
-        </is>
+        <v>1599</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>征服赛季</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>245</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -549,27 +609,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1alv75mm4047</t>
+          <t>sm70s3c3597</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>城管政法委</t>
+          <t>益州刘玥</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>580</v>
+        <v>666</v>
       </c>
       <c r="E7" t="n">
-        <v>200</v>
-      </c>
-      <c r="F7" t="n">
-        <v>97</v>
-      </c>
-      <c r="G7" t="inlineStr">
+        <v>666</v>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>征服赛季</t>
         </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>177</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -578,27 +647,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1bk0hamj4074</t>
+          <t>tj1ijo03622</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉成</t>
+          <t>无妄乄大梁哥</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3000</v>
+        <v>6333</v>
       </c>
       <c r="E8" t="n">
-        <v>2500</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="inlineStr">
+        <v>6888</v>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>备战区</t>
         </is>
+      </c>
+      <c r="G8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" t="n">
+        <v>466</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -607,27 +685,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>c2tyiv43203</t>
+          <t>18qxfjkt4002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>基丨秦漫漫</t>
+          <t>神丨白月光</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>3666</v>
+        <v>800</v>
       </c>
       <c r="E9" t="n">
-        <v>3666</v>
-      </c>
-      <c r="F9" t="n">
+        <v>800</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>征服赛季</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>征服赛季</t>
-        </is>
+      <c r="H9" t="n">
+        <v>161</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -636,27 +723,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ihvljcw3367</t>
+          <t>134fhrto3851</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>戰丶无名</t>
+          <t>冰霜大圣</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>660</v>
+        <v>1999</v>
       </c>
       <c r="E10" t="n">
-        <v>660</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>备战区</t>
-        </is>
+        <v>1700</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>征服赛季</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>206</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -665,27 +761,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>12l886l73843</t>
+          <t>e7umqco3246</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>逆丨十三</t>
+          <t>薛郡虎豹骑</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1500</v>
+        <v>11000</v>
       </c>
       <c r="E11" t="n">
-        <v>1200</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>征服赛季</t>
-        </is>
+        <v>11900</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>备战区</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>11</v>
+      </c>
+      <c r="H11" t="n">
+        <v>572</v>
+      </c>
+      <c r="I11" t="n">
+        <v>12</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -694,27 +799,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>d8qoz2w3225</t>
+          <t>d8z0i9c3226</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Shinn</t>
+          <t>墨一</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3800</v>
+        <v>8300</v>
       </c>
       <c r="E12" t="n">
-        <v>4000</v>
-      </c>
-      <c r="F12" t="n">
-        <v>19</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>备战区</t>
-        </is>
+        <v>6666</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>征服赛季</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>446</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -723,27 +837,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1050840002</t>
+          <t>11av8o5y3805</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>三晋散骑</t>
+          <t>弑天丨食神</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1250</v>
+        <v>888</v>
       </c>
       <c r="E13" t="n">
-        <v>1099</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="inlineStr">
+        <v>2500</v>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>备战区</t>
         </is>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" t="n">
+        <v>218</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -752,27 +875,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>yquisbs3762</t>
+          <t>dhv0gmg3676</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>小野菊</t>
+          <t>Tiger</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1650</v>
+        <v>968</v>
       </c>
       <c r="E14" t="n">
-        <v>1700</v>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>备战区</t>
-        </is>
+        <v>998</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>征服赛季</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>9</v>
+      </c>
+      <c r="H14" t="n">
+        <v>210</v>
+      </c>
+      <c r="I14" t="n">
+        <v>4</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -781,27 +913,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1ezkcwnl4165</t>
+          <t>1gbzvxda4201</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>我贼丑</t>
+          <t>大圣齐天</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>200</v>
+        <v>6500</v>
       </c>
       <c r="E15" t="n">
-        <v>300</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="inlineStr">
+        <v>10888</v>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>备战区</t>
         </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" t="n">
+        <v>334</v>
+      </c>
+      <c r="I15" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -810,27 +951,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>tew4kew3616</t>
+          <t>1clh4ren4111</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>先生</t>
+          <t>莽丶席卷长空</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>400</v>
+        <v>5500</v>
       </c>
       <c r="E16" t="n">
-        <v>400</v>
-      </c>
-      <c r="F16" t="n">
-        <v>14</v>
-      </c>
-      <c r="G16" t="inlineStr">
+        <v>5000</v>
+      </c>
+      <c r="F16" t="inlineStr">
         <is>
           <t>备战区</t>
         </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="n">
+        <v>291</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
